--- a/Software/Spellen.xlsx
+++ b/Software/Spellen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Prioriteit</t>
   </si>
@@ -77,10 +77,31 @@
     <t>o staat een tekening van het dier op het display</t>
   </si>
   <si>
-    <t>Altijd goed</t>
-  </si>
-  <si>
     <t>Het display is leeg (misschien later: songtekst)</t>
+  </si>
+  <si>
+    <t>Speel piano</t>
+  </si>
+  <si>
+    <t>Speel het na</t>
+  </si>
+  <si>
+    <t>Leer de kleuren</t>
+  </si>
+  <si>
+    <t>Speel een lied</t>
+  </si>
+  <si>
+    <t>Raad het dier</t>
+  </si>
+  <si>
+    <t>Liedjes</t>
+  </si>
+  <si>
+    <t>Geen</t>
+  </si>
+  <si>
+    <t>Wel</t>
   </si>
 </sst>
 </file>
@@ -421,18 +442,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,111 +464,129 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="C3" t="s">
+    <row r="3" spans="1:4">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
+    <row r="6" spans="1:4">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="C9" t="s">
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="C14" t="s">
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="C15" t="s">
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
+    <row r="16" spans="1:4">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
     </row>
